--- a/data/results/result2.xlsx
+++ b/data/results/result2.xlsx
@@ -106,22 +106,22 @@
     <t>混合料</t>
   </si>
   <si>
-    <t>巴西粗粉=[8.00046]</t>
-  </si>
-  <si>
-    <t>高品澳粉=[14.99236]</t>
+    <t>巴西粗粉=[8.30644]</t>
+  </si>
+  <si>
+    <t>高品澳粉=[15.0]</t>
   </si>
   <si>
     <t>高返=[12.5228]</t>
   </si>
   <si>
-    <t>过筛镍矿=[11.42326]</t>
-  </si>
-  <si>
-    <t>塞拉利昂粉=[10.5031]</t>
-  </si>
-  <si>
-    <t>FMG低品澳粉=[38.88044]</t>
+    <t>过筛镍矿=[11.43161]</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉=[9.061576]</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉=[40.0]</t>
   </si>
   <si>
     <t>铁泥=[0.6015498]</t>
@@ -609,7 +609,7 @@
         <v>566.5</v>
       </c>
       <c r="N2" s="1">
-        <v>8.00046</v>
+        <v>8.30644</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -656,7 +656,7 @@
         <v>600.5</v>
       </c>
       <c r="N3" s="1">
-        <v>14.99236</v>
+        <v>15</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -762,7 +762,7 @@
         <v>431.41</v>
       </c>
       <c r="N5" s="1">
-        <v>11.42326</v>
+        <v>11.43161</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -812,7 +812,7 @@
         <v>498.015344202792</v>
       </c>
       <c r="N6" s="1">
-        <v>10.5031</v>
+        <v>9.061576000000001</v>
       </c>
       <c r="O6">
         <v>8</v>
@@ -859,7 +859,7 @@
         <v>466.846846846847</v>
       </c>
       <c r="N7" s="1">
-        <v>38.88044</v>
+        <v>40</v>
       </c>
       <c r="O7">
         <v>30</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>443.4600799271746</v>
+        <v>443.5844540845503</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>11</v>
@@ -1153,7 +1153,7 @@
         <v>0.18</v>
       </c>
       <c r="M13" s="1">
-        <v>491.2922945829696</v>
+        <v>491.1624438070814</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>39</v>
@@ -1167,31 +1167,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>55.96515497574863</v>
+        <v>55.97354587826486</v>
       </c>
       <c r="D14">
-        <v>5.237854777311242</v>
+        <v>5.312548443993991</v>
       </c>
       <c r="E14">
-        <v>2.718708443796004</v>
+        <v>2.717244250260564</v>
       </c>
       <c r="F14">
-        <v>0.7383929383713567</v>
+        <v>0.7382318125435676</v>
       </c>
       <c r="G14">
-        <v>2.999480633985409</v>
+        <v>2.930502791926121</v>
       </c>
       <c r="H14">
-        <v>0.04886743699334411</v>
+        <v>0.04884082306349972</v>
       </c>
       <c r="I14">
-        <v>0.06680778582491123</v>
+        <v>0.066299653419187</v>
       </c>
       <c r="J14">
-        <v>0.1799675404458176</v>
+        <v>0.1799999921827196</v>
       </c>
       <c r="M14" s="1">
-        <v>529.8726717751728</v>
+        <v>529.5819204297203</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>40</v>

--- a/data/results/result2.xlsx
+++ b/data/results/result2.xlsx
@@ -106,22 +106,22 @@
     <t>混合料</t>
   </si>
   <si>
-    <t>巴西粗粉=[8.30644]</t>
-  </si>
-  <si>
-    <t>高品澳粉=[15.0]</t>
+    <t>巴西粗粉=[9.106115]</t>
+  </si>
+  <si>
+    <t>高品澳粉=[14.9995]</t>
   </si>
   <si>
     <t>高返=[12.5228]</t>
   </si>
   <si>
-    <t>过筛镍矿=[11.43161]</t>
-  </si>
-  <si>
-    <t>塞拉利昂粉=[9.061576]</t>
-  </si>
-  <si>
-    <t>FMG低品澳粉=[40.0]</t>
+    <t>过筛镍矿=[8.022962]</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉=[12.9371]</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉=[38.73394]</t>
   </si>
   <si>
     <t>铁泥=[0.6015498]</t>
@@ -609,7 +609,7 @@
         <v>566.5</v>
       </c>
       <c r="N2" s="1">
-        <v>8.30644</v>
+        <v>9.106115000000001</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -656,7 +656,7 @@
         <v>600.5</v>
       </c>
       <c r="N3" s="1">
-        <v>15</v>
+        <v>14.9995</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -762,7 +762,7 @@
         <v>431.41</v>
       </c>
       <c r="N5" s="1">
-        <v>11.43161</v>
+        <v>8.022962</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -812,7 +812,7 @@
         <v>498.015344202792</v>
       </c>
       <c r="N6" s="1">
-        <v>9.061576000000001</v>
+        <v>12.9371</v>
       </c>
       <c r="O6">
         <v>8</v>
@@ -859,7 +859,7 @@
         <v>466.846846846847</v>
       </c>
       <c r="N7" s="1">
-        <v>40</v>
+        <v>38.73394</v>
       </c>
       <c r="O7">
         <v>30</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>443.5844540845503</v>
+        <v>449.4836745873153</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>11</v>
@@ -1153,7 +1153,7 @@
         <v>0.18</v>
       </c>
       <c r="M13" s="1">
-        <v>491.1624438070814</v>
+        <v>493.8876666676157</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>39</v>
@@ -1167,31 +1167,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>55.97354587826486</v>
+        <v>56.22627690582272</v>
       </c>
       <c r="D14">
-        <v>5.312548443993991</v>
+        <v>5.250134635151183</v>
       </c>
       <c r="E14">
-        <v>2.717244250260564</v>
+        <v>2.695253931548289</v>
       </c>
       <c r="F14">
-        <v>0.7382318125435676</v>
+        <v>0.7095317708524086</v>
       </c>
       <c r="G14">
-        <v>2.930502791926121</v>
+        <v>2.999544902335555</v>
       </c>
       <c r="H14">
-        <v>0.04884082306349972</v>
+        <v>0.04846725218306704</v>
       </c>
       <c r="I14">
-        <v>0.066299653419187</v>
+        <v>0.06785895854924896</v>
       </c>
       <c r="J14">
-        <v>0.1799999921827196</v>
+        <v>0.1257720972987855</v>
       </c>
       <c r="M14" s="1">
-        <v>529.5819204297203</v>
+        <v>531.7227654049722</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>40</v>
